--- a/database/AN_pp/expdata/3000.xlsx
+++ b/database/AN_pp/expdata/3000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/AN_pp/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Desktop/GIT/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0ECEDF-3F7D-8E46-AA4D-0C0480AF0A85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8484E094-3DD6-CF4B-A17D-CD4F4C02C95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6260" yWindow="4700" windowWidth="20360" windowHeight="11380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14520" yWindow="500" windowWidth="21280" windowHeight="14920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,10 +76,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000_ "/>
-    <numFmt numFmtId="165" formatCode="0.00000_ "/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -187,22 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -564,34 +558,34 @@
       <c r="A2" s="2">
         <v>0.20661399999999999</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1.02331E-2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>9.7148899999999997E-4</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>3.0699199999999999E-5</v>
       </c>
       <c r="E2" s="2">
         <v>2.2938200000000002</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>200</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -611,22 +605,22 @@
       <c r="E3" s="5">
         <v>2.7605</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>200</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -646,22 +640,22 @@
       <c r="E4" s="5">
         <v>3.00705</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>200</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -681,22 +675,22 @@
       <c r="E5" s="5">
         <v>3.02115</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>200</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -716,22 +710,22 @@
       <c r="E6" s="5">
         <v>2.8686699999999998</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>200</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -739,34 +733,34 @@
       <c r="A7" s="5">
         <v>0.45335500000000001</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <v>4.5555699999999998E-2</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>2.2769299999999999E-3</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>5.0111199999999996E-4</v>
       </c>
       <c r="E7" s="5">
         <v>2.7879399999999999</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>200</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -774,34 +768,34 @@
       <c r="A8" s="5">
         <v>0.503471</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <v>4.7117300000000001E-2</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <v>2.76378E-3</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>4.7117300000000002E-4</v>
       </c>
       <c r="E8" s="5">
         <v>2.8016899999999998</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>200</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -809,71 +803,84 @@
       <c r="A9" s="5">
         <v>0.55291000000000001</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <v>5.6751299999999998E-2</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="5">
         <v>4.2029700000000003E-3</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>9.0802099999999996E-4</v>
       </c>
       <c r="E9" s="5">
         <v>2.8982199999999998</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>200</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>0.61033599999999999</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>8.0419500000000005E-2</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>8.2209899999999992E-3</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>1.12587E-3</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>3.1483400000000001</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>200</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K10" t="s">
-        <v>0</v>
-      </c>
+      <c r="K10" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/database/AN_pp/expdata/3000.xlsx
+++ b/database/AN_pp/expdata/3000.xlsx
@@ -5,20 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Desktop/GIT/jam3d/database/AN_pp/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8484E094-3DD6-CF4B-A17D-CD4F4C02C95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BF67328-6713-844F-8686-DA9A0D89459F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="500" windowWidth="21280" windowHeight="14920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6640" yWindow="2240" windowWidth="27640" windowHeight="16940" xr2:uid="{C6C23FCA-5F0C-8E4B-BD1A-004F648D7D70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -51,6 +60,9 @@
     <t>hadron</t>
   </si>
   <si>
+    <t>pi0</t>
+  </si>
+  <si>
     <t>col</t>
   </si>
   <si>
@@ -61,9 +73,6 @@
   </si>
   <si>
     <t>p</t>
-  </si>
-  <si>
-    <t>pi0</t>
   </si>
   <si>
     <t>STAR</t>
@@ -76,38 +85,38 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -115,88 +124,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,16 +446,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309AB2EB-F472-664F-BA54-F4DEBFDDF403}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,345 +481,332 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.20661399999999999</v>
+      </c>
+      <c r="B2">
+        <v>1.02331E-2</v>
+      </c>
+      <c r="C2">
+        <v>9.7148899999999997E-4</v>
+      </c>
+      <c r="D2">
+        <v>3.0699199999999999E-5</v>
+      </c>
+      <c r="E2">
+        <v>2.2938200000000002</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>0.20661399999999999</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1.02331E-2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>9.7148899999999997E-4</v>
-      </c>
-      <c r="D2" s="3">
-        <v>3.0699199999999999E-5</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2.2938200000000002</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.254635</v>
+      </c>
+      <c r="B3">
+        <v>1.9389900000000002E-2</v>
+      </c>
+      <c r="C3">
+        <v>7.7329899999999997E-4</v>
+      </c>
+      <c r="D3">
+        <v>1.9389899999999999E-5</v>
+      </c>
+      <c r="E3">
+        <v>2.7605</v>
+      </c>
+      <c r="F3">
         <v>200</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>0.254635</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1.9389900000000002E-2</v>
-      </c>
-      <c r="C3" s="6">
-        <v>7.7329899999999997E-4</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1.9389899999999999E-5</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2.7605</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.30248900000000001</v>
+      </c>
+      <c r="B4">
+        <v>2.9439300000000002E-2</v>
+      </c>
+      <c r="C4">
+        <v>9.4827300000000002E-4</v>
+      </c>
+      <c r="D4">
+        <v>2.9439300000000001E-5</v>
+      </c>
+      <c r="E4">
+        <v>3.00705</v>
+      </c>
+      <c r="F4">
         <v>200</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>0.30248900000000001</v>
-      </c>
-      <c r="B4" s="6">
-        <v>2.9439300000000002E-2</v>
-      </c>
-      <c r="C4" s="6">
-        <v>9.4827300000000002E-4</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2.9439300000000001E-5</v>
-      </c>
-      <c r="E4" s="5">
-        <v>3.00705</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.35272999999999999</v>
+      </c>
+      <c r="B5">
+        <v>3.3852699999999999E-2</v>
+      </c>
+      <c r="C5">
+        <v>1.3305700000000001E-3</v>
+      </c>
+      <c r="D5">
+        <v>2.3696899999999999E-4</v>
+      </c>
+      <c r="E5">
+        <v>3.02115</v>
+      </c>
+      <c r="F5">
         <v>200</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J5" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>0.35272999999999999</v>
-      </c>
-      <c r="B5" s="6">
-        <v>3.3852699999999999E-2</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1.3305700000000001E-3</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2.3696899999999999E-4</v>
-      </c>
-      <c r="E5" s="5">
-        <v>3.02115</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="K5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.40306700000000001</v>
+      </c>
+      <c r="B6">
+        <v>3.95328E-2</v>
+      </c>
+      <c r="C6">
+        <v>1.5842300000000001E-3</v>
+      </c>
+      <c r="D6">
+        <v>2.7672999999999999E-4</v>
+      </c>
+      <c r="E6">
+        <v>2.8686699999999998</v>
+      </c>
+      <c r="F6">
         <v>200</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J6" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>0.40306700000000001</v>
-      </c>
-      <c r="B6" s="6">
-        <v>3.95328E-2</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1.5842300000000001E-3</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2.7672999999999999E-4</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2.8686699999999998</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="K6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.45335500000000001</v>
+      </c>
+      <c r="B7">
+        <v>4.5555699999999998E-2</v>
+      </c>
+      <c r="C7">
+        <v>2.2769299999999999E-3</v>
+      </c>
+      <c r="D7">
+        <v>5.0111199999999996E-4</v>
+      </c>
+      <c r="E7">
+        <v>2.7879399999999999</v>
+      </c>
+      <c r="F7">
         <v>200</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J7" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>0.45335500000000001</v>
-      </c>
-      <c r="B7" s="5">
-        <v>4.5555699999999998E-2</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2.2769299999999999E-3</v>
-      </c>
-      <c r="D7" s="8">
-        <v>5.0111199999999996E-4</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2.7879399999999999</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="K7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.503471</v>
+      </c>
+      <c r="B8">
+        <v>4.7117300000000001E-2</v>
+      </c>
+      <c r="C8">
+        <v>2.76378E-3</v>
+      </c>
+      <c r="D8">
+        <v>4.7117300000000002E-4</v>
+      </c>
+      <c r="E8">
+        <v>2.8016899999999998</v>
+      </c>
+      <c r="F8">
         <v>200</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J8" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>0.503471</v>
-      </c>
-      <c r="B8" s="5">
-        <v>4.7117300000000001E-2</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2.76378E-3</v>
-      </c>
-      <c r="D8" s="8">
-        <v>4.7117300000000002E-4</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2.8016899999999998</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="K8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.55291000000000001</v>
+      </c>
+      <c r="B9">
+        <v>5.6751299999999998E-2</v>
+      </c>
+      <c r="C9">
+        <v>4.2029700000000003E-3</v>
+      </c>
+      <c r="D9">
+        <v>9.0802099999999996E-4</v>
+      </c>
+      <c r="E9">
+        <v>2.8982199999999998</v>
+      </c>
+      <c r="F9">
         <v>200</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J9" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>0.55291000000000001</v>
-      </c>
-      <c r="B9" s="5">
-        <v>5.6751299999999998E-2</v>
-      </c>
-      <c r="C9" s="5">
-        <v>4.2029700000000003E-3</v>
-      </c>
-      <c r="D9" s="8">
-        <v>9.0802099999999996E-4</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2.8982199999999998</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="K9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.61033599999999999</v>
+      </c>
+      <c r="B10">
+        <v>8.0419500000000005E-2</v>
+      </c>
+      <c r="C10">
+        <v>8.2209899999999992E-3</v>
+      </c>
+      <c r="D10">
+        <v>1.12587E-3</v>
+      </c>
+      <c r="E10">
+        <v>3.1483400000000001</v>
+      </c>
+      <c r="F10">
         <v>200</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="G10" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J10" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>0.61033599999999999</v>
-      </c>
-      <c r="B10" s="9">
-        <v>8.0419500000000005E-2</v>
-      </c>
-      <c r="C10" s="9">
-        <v>8.2209899999999992E-3</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1.12587E-3</v>
-      </c>
-      <c r="E10" s="9">
-        <v>3.1483400000000001</v>
-      </c>
-      <c r="F10" s="4">
-        <v>200</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="K10" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>